--- a/biology/Botanique/Chnoosporaceae/Chnoosporaceae.xlsx
+++ b/biology/Botanique/Chnoosporaceae/Chnoosporaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chnoosporaceae sont une famille d’algues brunes de l’ordre des Ectocarpales. 
-La famille des Chnoosporaceae est incluse dans la famille des Scytosiphonaceae selon AlgaeBase                                           (3 janvier 2020)[2].
+La famille des Chnoosporaceae est incluse dans la famille des Scytosiphonaceae selon AlgaeBase                                           (3 janvier 2020).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Chnoospora, dérivé du grec ancien Χνόος / chnóos, « duvet ; laine de rembourrage », et σπορα / spora, « semence ; graine »[3],[note 1], en référence aux « Filaments fertiles clavés [jointés] ou moniliformes [en forme de collier], densément tassés »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Chnoospora, dérivé du grec ancien Χνόος / chnóos, « duvet ; laine de rembourrage », et σπορα / spora, « semence ; graine »,[note 1], en référence aux « Filaments fertiles clavés [jointés] ou moniliformes [en forme de collier], densément tassés ».
 Il est à noter que, le nom « Chnoosporaceae » a la même structure étymologique (mais inversée) que celle de la famille des Sporochnaceae.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (25 août 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (25 août 2017) :
 Chnoospora  J.Agardh, 1847</t>
         </is>
       </c>
